--- a/data/trans_orig/P14B23-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B23-Provincia-trans_orig.xlsx
@@ -746,16 +746,16 @@
         <v>4104</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16647</v>
+        <v>16268</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03103650798060275</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01392357394669995</v>
+        <v>0.01392277592556707</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05647978285518818</v>
+        <v>0.05519499622063506</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -764,19 +764,19 @@
         <v>26442</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16823</v>
+        <v>18640</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38305</v>
+        <v>39632</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09240401113724256</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05879140451524641</v>
+        <v>0.06513927145775696</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1338611670531645</v>
+        <v>0.1384987643077866</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -785,19 +785,19 @@
         <v>35589</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25683</v>
+        <v>24235</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49080</v>
+        <v>48523</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06126683368157561</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04421383985204604</v>
+        <v>0.04172085355929072</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08449041387538885</v>
+        <v>0.08353114473893886</v>
       </c>
     </row>
     <row r="5">
@@ -814,7 +814,7 @@
         <v>285590</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>278091</v>
+        <v>278470</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>290634</v>
@@ -823,10 +823,10 @@
         <v>0.9689634920193972</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9435202171448118</v>
+        <v>0.9448050037793652</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9860764260533</v>
+        <v>0.986077224074433</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>230</v>
@@ -835,19 +835,19 @@
         <v>259712</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>247849</v>
+        <v>246522</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>269331</v>
+        <v>267514</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9075959888627575</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8661388329468354</v>
+        <v>0.8615012356922135</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9412085954847533</v>
+        <v>0.9348607285422431</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>503</v>
@@ -856,19 +856,19 @@
         <v>545303</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>531812</v>
+        <v>532369</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>555209</v>
+        <v>556657</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9387331663184244</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9155095861246111</v>
+        <v>0.9164688552610611</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9557861601479539</v>
+        <v>0.9582791464407093</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>16513</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8786</v>
+        <v>8256</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28632</v>
+        <v>28903</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03266552678436534</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01737988057141475</v>
+        <v>0.01633073057189747</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05663730092637526</v>
+        <v>0.05717423437474759</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>50</v>
@@ -981,19 +981,19 @@
         <v>54604</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40682</v>
+        <v>42850</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>69342</v>
+        <v>71354</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.104252980604145</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0776729299622195</v>
+        <v>0.08181065081945903</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1323914474572722</v>
+        <v>0.1362319715641351</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>61</v>
@@ -1002,19 +1002,19 @@
         <v>71117</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>55608</v>
+        <v>54297</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>90621</v>
+        <v>90158</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06909347292957792</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05402530805822037</v>
+        <v>0.05275197345852903</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08804245045773683</v>
+        <v>0.0875921462380107</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>489014</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>476895</v>
+        <v>476624</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>496741</v>
+        <v>497271</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9673344732156347</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9433626990736248</v>
+        <v>0.9428257656252526</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9826201194285854</v>
+        <v>0.9836692694281026</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>430</v>
@@ -1052,19 +1052,19 @@
         <v>469161</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>454423</v>
+        <v>452411</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>483083</v>
+        <v>480915</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8957470193958551</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8676085525427278</v>
+        <v>0.8637680284358648</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9223270700377805</v>
+        <v>0.918189349180541</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>891</v>
@@ -1073,19 +1073,19 @@
         <v>958175</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>938671</v>
+        <v>939134</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>973684</v>
+        <v>974995</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9309065270704221</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9119575495422632</v>
+        <v>0.9124078537619893</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9459746919417796</v>
+        <v>0.9472480265414709</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>9719</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4847</v>
+        <v>4951</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16700</v>
+        <v>17921</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02999369351318822</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01495893352597654</v>
+        <v>0.01527880358321621</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05153715615983789</v>
+        <v>0.05530408341947806</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -1198,19 +1198,19 @@
         <v>21417</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13867</v>
+        <v>14315</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32817</v>
+        <v>34132</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06299497556125438</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04078750861114862</v>
+        <v>0.04210398438353525</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09652589899213376</v>
+        <v>0.1003924698550308</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -1219,19 +1219,19 @@
         <v>31137</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21466</v>
+        <v>21809</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>43537</v>
+        <v>43398</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04689036061868156</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03232739986079974</v>
+        <v>0.03284332798079755</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06556494266568291</v>
+        <v>0.06535613331438654</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>314327</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>307346</v>
+        <v>306125</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>319199</v>
+        <v>319095</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9700063064868117</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9484628438401621</v>
+        <v>0.9446959165805219</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9850410664740235</v>
+        <v>0.9847211964167838</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>296</v>
@@ -1269,19 +1269,19 @@
         <v>318566</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>307166</v>
+        <v>305851</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>326116</v>
+        <v>325668</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9370050244387456</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9034741010078663</v>
+        <v>0.8996075301449691</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9592124913888513</v>
+        <v>0.9578960156164646</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>605</v>
@@ -1290,19 +1290,19 @@
         <v>632892</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>620492</v>
+        <v>620631</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>642563</v>
+        <v>642220</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9531096393813184</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9344350573343174</v>
+        <v>0.9346438666856138</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9676726001392004</v>
+        <v>0.9671566720192024</v>
       </c>
     </row>
     <row r="12">
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7670</v>
+        <v>7845</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00569761893616589</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02051011075879596</v>
+        <v>0.02097571586464649</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -1415,19 +1415,19 @@
         <v>33140</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23249</v>
+        <v>23500</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45363</v>
+        <v>47353</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08605115719823411</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06036671267367845</v>
+        <v>0.06101804334121108</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1177869592844782</v>
+        <v>0.1229553019255007</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -1436,19 +1436,19 @@
         <v>35271</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24754</v>
+        <v>25156</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48886</v>
+        <v>48408</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04646407845082903</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03260880334607842</v>
+        <v>0.03313952139813557</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0643996987171437</v>
+        <v>0.06376921915701658</v>
       </c>
     </row>
     <row r="14">
@@ -1465,7 +1465,7 @@
         <v>371851</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>366312</v>
+        <v>366137</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>373982</v>
@@ -1474,7 +1474,7 @@
         <v>0.9943023810638341</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9794898892412041</v>
+        <v>0.9790242841353535</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1486,19 +1486,19 @@
         <v>351984</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>339761</v>
+        <v>337771</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>361875</v>
+        <v>361624</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9139488428017659</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8822130407155219</v>
+        <v>0.8770446980744995</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9396332873263216</v>
+        <v>0.9389819566587889</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>678</v>
@@ -1507,19 +1507,19 @@
         <v>723835</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>710220</v>
+        <v>710698</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>734352</v>
+        <v>733950</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.953535921549171</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9356003012828565</v>
+        <v>0.9362307808429837</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9673911966539217</v>
+        <v>0.9668604786018645</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>7212</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3196</v>
+        <v>2888</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14590</v>
+        <v>13823</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03392176809313697</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01503095473217051</v>
+        <v>0.01358347337998704</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06862196327457362</v>
+        <v>0.06501403486791299</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -1632,19 +1632,19 @@
         <v>35512</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25160</v>
+        <v>24226</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>47600</v>
+        <v>46932</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1617194817185854</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1145747174696312</v>
+        <v>0.1103218305228237</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2167643546166308</v>
+        <v>0.2137255732060673</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>41</v>
@@ -1653,19 +1653,19 @@
         <v>42725</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31637</v>
+        <v>31455</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>55707</v>
+        <v>57202</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09885152470791843</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07319788732141637</v>
+        <v>0.0727783652143275</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1288892714246642</v>
+        <v>0.1323489323064586</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>205406</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>198028</v>
+        <v>198795</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>209422</v>
+        <v>209730</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.966078231906863</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9313780367254262</v>
+        <v>0.9349859651320864</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9849690452678292</v>
+        <v>0.9864165266200128</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>178</v>
@@ -1703,19 +1703,19 @@
         <v>184079</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>171991</v>
+        <v>172659</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>194431</v>
+        <v>195365</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8382805182814146</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7832356453833693</v>
+        <v>0.7862744267939329</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8854252825303689</v>
+        <v>0.8896781694771764</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>367</v>
@@ -1724,19 +1724,19 @@
         <v>389484</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>376502</v>
+        <v>375007</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>400572</v>
+        <v>400754</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9011484752920815</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8711107285753358</v>
+        <v>0.8676510676935414</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9268021126785836</v>
+        <v>0.9272216347856724</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>8987</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3910</v>
+        <v>4804</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15894</v>
+        <v>16787</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03280080511486093</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01427155621446966</v>
+        <v>0.01753307444145037</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0580100597424048</v>
+        <v>0.06127092128209882</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -1849,19 +1849,19 @@
         <v>23702</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14538</v>
+        <v>15415</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33056</v>
+        <v>34707</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08522987663117022</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.052277678890524</v>
+        <v>0.05542994357337594</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1188651788471222</v>
+        <v>0.1248022116807256</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>32</v>
@@ -1870,19 +1870,19 @@
         <v>32689</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>22516</v>
+        <v>23743</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>44492</v>
+        <v>45553</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05921072339271441</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04078367664227322</v>
+        <v>0.04300739130795431</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08058970428029581</v>
+        <v>0.08251119436606759</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>264994</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>258087</v>
+        <v>257194</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>270071</v>
+        <v>269177</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9671991948851391</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9419899402575953</v>
+        <v>0.9387290787179012</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9857284437855304</v>
+        <v>0.9824669255585496</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>245</v>
@@ -1920,19 +1920,19 @@
         <v>254394</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>245040</v>
+        <v>243389</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>263558</v>
+        <v>262681</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9147701233688298</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8811348211528778</v>
+        <v>0.8751977883192747</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9477223211094762</v>
+        <v>0.9445700564266242</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>497</v>
@@ -1941,19 +1941,19 @@
         <v>519388</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>507585</v>
+        <v>506524</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>529561</v>
+        <v>528334</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9407892766072856</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9194102957197042</v>
+        <v>0.9174888056339325</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9592163233577268</v>
+        <v>0.9569926086920457</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>16754</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9763</v>
+        <v>9884</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26692</v>
+        <v>27044</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02527734987811925</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01473034190424212</v>
+        <v>0.01491298164113278</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04027304979767253</v>
+        <v>0.04080302500762732</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>37</v>
@@ -2066,19 +2066,19 @@
         <v>39962</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>29076</v>
+        <v>29235</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>53134</v>
+        <v>55164</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0576821355722508</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04196917606830725</v>
+        <v>0.04219765484587358</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07669492231645222</v>
+        <v>0.07962500655879329</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>53</v>
@@ -2087,19 +2087,19 @@
         <v>56716</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>43282</v>
+        <v>41937</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>74575</v>
+        <v>73427</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0418384582880353</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03192847330107663</v>
+        <v>0.03093661308935435</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05501273315541625</v>
+        <v>0.05416591123165728</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>646034</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>636096</v>
+        <v>635744</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>653025</v>
+        <v>652904</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9747226501218808</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9597269502023273</v>
+        <v>0.9591969749923729</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9852696580957579</v>
+        <v>0.9850870183588674</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>598</v>
@@ -2137,19 +2137,19 @@
         <v>652838</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>639666</v>
+        <v>637636</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>663724</v>
+        <v>663565</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9423178644277492</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9233050776835477</v>
+        <v>0.9203749934412065</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9580308239316927</v>
+        <v>0.9578023451541263</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1200</v>
@@ -2158,19 +2158,19 @@
         <v>1298872</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1281013</v>
+        <v>1282161</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1312306</v>
+        <v>1313651</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9581615417119647</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9449872668445837</v>
+        <v>0.9458340887683426</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9680715266989234</v>
+        <v>0.9690633869106455</v>
       </c>
     </row>
     <row r="24">
@@ -2262,19 +2262,19 @@
         <v>14694</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8241</v>
+        <v>8248</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24645</v>
+        <v>24901</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01891244465082704</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01060667364436753</v>
+        <v>0.01061534114566559</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03172024994717014</v>
+        <v>0.03204994335801679</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>47</v>
@@ -2283,19 +2283,19 @@
         <v>50214</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>37021</v>
+        <v>37474</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>66323</v>
+        <v>66505</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06112878206878258</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04506779689016196</v>
+        <v>0.0456198625903786</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08073910755361266</v>
+        <v>0.08096014647606033</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>60</v>
@@ -2304,19 +2304,19 @@
         <v>64908</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>50594</v>
+        <v>50023</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>83137</v>
+        <v>83303</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04060827854375598</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03165274176554136</v>
+        <v>0.03129544650620004</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05201282160436088</v>
+        <v>0.05211627375433061</v>
       </c>
     </row>
     <row r="26">
@@ -2333,19 +2333,19 @@
         <v>762255</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>752304</v>
+        <v>752048</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>768708</v>
+        <v>768701</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9810875553491729</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9682797500528298</v>
+        <v>0.9679500566419832</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9893933263556325</v>
+        <v>0.9893846588543345</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>708</v>
@@ -2354,19 +2354,19 @@
         <v>771236</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>755127</v>
+        <v>754945</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>784429</v>
+        <v>783976</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9388712179312174</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.919260892446387</v>
+        <v>0.9190398535239397</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.954932203109838</v>
+        <v>0.9543801374096214</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1410</v>
@@ -2375,19 +2375,19 @@
         <v>1533491</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1515262</v>
+        <v>1515096</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1547805</v>
+        <v>1548376</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9593917214562441</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9479871783956394</v>
+        <v>0.9478837262456694</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9683472582344587</v>
+        <v>0.9687045534937999</v>
       </c>
     </row>
     <row r="27">
@@ -2479,19 +2479,19 @@
         <v>85158</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>66619</v>
+        <v>66696</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>104087</v>
+        <v>106661</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02486628227213002</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01945285199492841</v>
+        <v>0.01947544663696105</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03039364984553857</v>
+        <v>0.0311453661706941</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>268</v>
@@ -2500,19 +2500,19 @@
         <v>284994</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>254658</v>
+        <v>249745</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>318538</v>
+        <v>318626</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08034875810665652</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07179618805041722</v>
+        <v>0.07041097629132298</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0898058673947862</v>
+        <v>0.08983063821945649</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>345</v>
@@ -2521,19 +2521,19 @@
         <v>370152</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>331951</v>
+        <v>332493</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>409461</v>
+        <v>409132</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05309430533066321</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04761473759596537</v>
+        <v>0.04769256339643078</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05873279286566738</v>
+        <v>0.0586856323841033</v>
       </c>
     </row>
     <row r="29">
@@ -2550,19 +2550,19 @@
         <v>3339472</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3320543</v>
+        <v>3317969</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3358011</v>
+        <v>3357934</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9751337177278699</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9696063501544615</v>
+        <v>0.9688546338293061</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9805471480050719</v>
+        <v>0.9805245533630391</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3021</v>
@@ -2571,19 +2571,19 @@
         <v>3261969</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3228425</v>
+        <v>3228337</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3292305</v>
+        <v>3297218</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9196512418933435</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9101941326052131</v>
+        <v>0.9101693617805435</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9282038119495828</v>
+        <v>0.929589023708677</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6151</v>
@@ -2592,19 +2592,19 @@
         <v>6601440</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6562131</v>
+        <v>6562460</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6639641</v>
+        <v>6639099</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9469056946693368</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9412672071343327</v>
+        <v>0.9413143676158968</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9523852624040348</v>
+        <v>0.9523074366035693</v>
       </c>
     </row>
     <row r="30">
@@ -2940,19 +2940,19 @@
         <v>7601</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3232</v>
+        <v>3403</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15143</v>
+        <v>14845</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02587317000910853</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01100383214503552</v>
+        <v>0.01158456455619282</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05154926061094784</v>
+        <v>0.05053515710889132</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -2961,19 +2961,19 @@
         <v>31160</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20171</v>
+        <v>21024</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43451</v>
+        <v>43575</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1079299357056468</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06986771154599161</v>
+        <v>0.07282228142928382</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1505040235281716</v>
+        <v>0.150931993898886</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -2982,19 +2982,19 @@
         <v>38760</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27421</v>
+        <v>27579</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52586</v>
+        <v>52927</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06654527058042081</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04707842254492463</v>
+        <v>0.04734821404270479</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09028265280625646</v>
+        <v>0.09086746274865534</v>
       </c>
     </row>
     <row r="5">
@@ -3011,19 +3011,19 @@
         <v>286160</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>278618</v>
+        <v>278916</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>290529</v>
+        <v>290358</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9741268299908915</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9484507393890511</v>
+        <v>0.9494648428911086</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9889961678549645</v>
+        <v>0.9884154354438072</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>249</v>
@@ -3032,19 +3032,19 @@
         <v>257543</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>245252</v>
+        <v>245128</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>268532</v>
+        <v>267679</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8920700642943532</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8494959764718283</v>
+        <v>0.849068006101114</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9301322884540083</v>
+        <v>0.9271777185707163</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>508</v>
@@ -3053,19 +3053,19 @@
         <v>543704</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>529878</v>
+        <v>529537</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>555043</v>
+        <v>554885</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9334547294195792</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9097173471937436</v>
+        <v>0.9091325372513448</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9529215774550754</v>
+        <v>0.9526517859572953</v>
       </c>
     </row>
     <row r="6">
@@ -3157,19 +3157,19 @@
         <v>13726</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7773</v>
+        <v>7650</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22512</v>
+        <v>22648</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02731133910185118</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0154670981502978</v>
+        <v>0.01522252625539246</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04479363141803018</v>
+        <v>0.04506315008527091</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -3178,19 +3178,19 @@
         <v>44144</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32880</v>
+        <v>32328</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>58336</v>
+        <v>58003</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08439130354688164</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06285786113414213</v>
+        <v>0.06180226850095884</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1115228487360651</v>
+        <v>0.1108866382024112</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>53</v>
@@ -3199,19 +3199,19 @@
         <v>57870</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>44847</v>
+        <v>44627</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>74327</v>
+        <v>74882</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05642199439478359</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04372457604653077</v>
+        <v>0.04351064144192308</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07246801259295821</v>
+        <v>0.07300863359451738</v>
       </c>
     </row>
     <row r="8">
@@ -3228,19 +3228,19 @@
         <v>488849</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>480063</v>
+        <v>479927</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>494802</v>
+        <v>494925</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9726886608981489</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9552063685819699</v>
+        <v>0.9549368499147294</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9845329018497023</v>
+        <v>0.9847774737446077</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>444</v>
@@ -3249,19 +3249,19 @@
         <v>478940</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>464748</v>
+        <v>465081</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>490204</v>
+        <v>490756</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9156086964531184</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8884771512639352</v>
+        <v>0.8891133617975889</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9371421388658578</v>
+        <v>0.9381977314990412</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>906</v>
@@ -3270,19 +3270,19 @@
         <v>967789</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>951332</v>
+        <v>950777</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>980812</v>
+        <v>981032</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9435780056052164</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9275319874070417</v>
+        <v>0.9269913664054826</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9562754239534692</v>
+        <v>0.956489358558077</v>
       </c>
     </row>
     <row r="9">
@@ -3374,19 +3374,19 @@
         <v>2900</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7895</v>
+        <v>7844</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009103122596429356</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002921328746082616</v>
+        <v>0.002939768792462259</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0247837266906361</v>
+        <v>0.02462193824170184</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -3395,19 +3395,19 @@
         <v>17854</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9891</v>
+        <v>10873</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27408</v>
+        <v>28695</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05308705770321395</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02940991970770419</v>
+        <v>0.03232902369173322</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08149774785527125</v>
+        <v>0.08532317357150677</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -3416,19 +3416,19 @@
         <v>20754</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12728</v>
+        <v>13396</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31357</v>
+        <v>32046</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03169096900458362</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01943546981197196</v>
+        <v>0.02045618102341407</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04788271911962255</v>
+        <v>0.04893408858618245</v>
       </c>
     </row>
     <row r="11">
@@ -3445,19 +3445,19 @@
         <v>315665</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>310670</v>
+        <v>310721</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>317634</v>
+        <v>317628</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9908968774035707</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9752162733093639</v>
+        <v>0.9753780617582983</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9970786712539174</v>
+        <v>0.9970602312075377</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>315</v>
@@ -3466,19 +3466,19 @@
         <v>318455</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>308901</v>
+        <v>307614</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>326418</v>
+        <v>325436</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.946912942296786</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9185022521447288</v>
+        <v>0.9146768264284932</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9705900802922958</v>
+        <v>0.9676709763082667</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>647</v>
@@ -3487,19 +3487,19 @@
         <v>634120</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>623517</v>
+        <v>622828</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>642146</v>
+        <v>641478</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9683090309954164</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9521172808803772</v>
+        <v>0.9510659114138176</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9805645301880279</v>
+        <v>0.9795438189765859</v>
       </c>
     </row>
     <row r="12">
@@ -3591,19 +3591,19 @@
         <v>4991</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1872</v>
+        <v>1904</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11175</v>
+        <v>10620</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01349152859321289</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00506014785534198</v>
+        <v>0.005145895953297122</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03020552942820326</v>
+        <v>0.02870647191392018</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -3612,19 +3612,19 @@
         <v>17841</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10947</v>
+        <v>10523</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27124</v>
+        <v>26879</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04606671154998945</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02826607489879001</v>
+        <v>0.02717163833715892</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07003677884425298</v>
+        <v>0.06940402549597294</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -3633,19 +3633,19 @@
         <v>22832</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13975</v>
+        <v>14291</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34231</v>
+        <v>34277</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03015163371723756</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01845562314456172</v>
+        <v>0.01887296693027997</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04520437123045248</v>
+        <v>0.04526493745156759</v>
       </c>
     </row>
     <row r="14">
@@ -3662,19 +3662,19 @@
         <v>364973</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>358789</v>
+        <v>359344</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>368092</v>
+        <v>368060</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9865084714067871</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9697944705717959</v>
+        <v>0.9712935280860798</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.994939852144658</v>
+        <v>0.9948541040467028</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>341</v>
@@ -3683,19 +3683,19 @@
         <v>369442</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>360159</v>
+        <v>360404</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>376336</v>
+        <v>376760</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9539332884500106</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.929963221155747</v>
+        <v>0.9305959745040269</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9717339251012099</v>
+        <v>0.972828361662841</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>690</v>
@@ -3704,19 +3704,19 @@
         <v>734415</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>723016</v>
+        <v>722970</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>743272</v>
+        <v>742956</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9698483662827624</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9547956287695472</v>
+        <v>0.9547350625484323</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.981544376855438</v>
+        <v>0.9811270330697199</v>
       </c>
     </row>
     <row r="15">
@@ -3808,19 +3808,19 @@
         <v>10660</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5598</v>
+        <v>5719</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18010</v>
+        <v>19038</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05046678368352846</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02650228732782688</v>
+        <v>0.02707625274685658</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.085265799541393</v>
+        <v>0.09013529886877567</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -3829,19 +3829,19 @@
         <v>18046</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11616</v>
+        <v>11086</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27756</v>
+        <v>27791</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08255556140236016</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05314180328339036</v>
+        <v>0.05071844099087021</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.12697873283446</v>
+        <v>0.1271387716174241</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -3850,19 +3850,19 @@
         <v>28705</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19271</v>
+        <v>19701</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>39367</v>
+        <v>40157</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06678613949738471</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04483635374032387</v>
+        <v>0.04583596550009072</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09159203616625154</v>
+        <v>0.09343080034320518</v>
       </c>
     </row>
     <row r="17">
@@ -3879,19 +3879,19 @@
         <v>200561</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>193211</v>
+        <v>192183</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>205623</v>
+        <v>205502</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9495332163164716</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9147342004586073</v>
+        <v>0.9098647011312243</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9734977126721732</v>
+        <v>0.9729237472531435</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>205</v>
@@ -3900,19 +3900,19 @@
         <v>200541</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>190831</v>
+        <v>190796</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>206971</v>
+        <v>207501</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9174444385976398</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.87302126716554</v>
+        <v>0.8728612283825753</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9468581967166095</v>
+        <v>0.9492815590091297</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>406</v>
@@ -3921,19 +3921,19 @@
         <v>401103</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>390441</v>
+        <v>389651</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>410537</v>
+        <v>410107</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9332138605026153</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9084079638337486</v>
+        <v>0.9065691996567953</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9551636462596761</v>
+        <v>0.9541640344999094</v>
       </c>
     </row>
     <row r="18">
@@ -4025,19 +4025,19 @@
         <v>2560</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7040</v>
+        <v>6834</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009728138696007617</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002986457292295194</v>
+        <v>0.002978524576840478</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02675425882791298</v>
+        <v>0.02597149974124268</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -4046,19 +4046,19 @@
         <v>26883</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18091</v>
+        <v>18139</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38328</v>
+        <v>38392</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09843259059083219</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06623889866109034</v>
+        <v>0.06641544090941379</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1403371106694681</v>
+        <v>0.140571251775736</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>28</v>
@@ -4067,19 +4067,19 @@
         <v>29443</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20127</v>
+        <v>20395</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>41231</v>
+        <v>43482</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05490680271312654</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03753303670877996</v>
+        <v>0.0380328181889736</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07688852526044793</v>
+        <v>0.08108687662969351</v>
       </c>
     </row>
     <row r="20">
@@ -4096,19 +4096,19 @@
         <v>260563</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>256083</v>
+        <v>256289</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>262337</v>
+        <v>262339</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9902718613039924</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9732457411720871</v>
+        <v>0.9740285002587574</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9970135427077048</v>
+        <v>0.9970214754231596</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>238</v>
@@ -4117,19 +4117,19 @@
         <v>246232</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>234787</v>
+        <v>234723</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>255024</v>
+        <v>254976</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9015674094091678</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8596628893305319</v>
+        <v>0.859428748224264</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9337611013389095</v>
+        <v>0.9335845590905862</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>494</v>
@@ -4138,19 +4138,19 @@
         <v>506795</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>495007</v>
+        <v>492756</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>516111</v>
+        <v>515843</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9450931972868735</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9231114747395521</v>
+        <v>0.9189131233703066</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9624669632912201</v>
+        <v>0.9619671818110264</v>
       </c>
     </row>
     <row r="21">
@@ -4242,19 +4242,19 @@
         <v>7279</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2324</v>
+        <v>2864</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15622</v>
+        <v>15550</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01108691823480245</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003539400718854431</v>
+        <v>0.004361624106381356</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02379315193521025</v>
+        <v>0.02368400188021821</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -4263,19 +4263,19 @@
         <v>28934</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17902</v>
+        <v>19529</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>42368</v>
+        <v>43001</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04185512079220496</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02589607645322936</v>
+        <v>0.02824975173863695</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06128805620741144</v>
+        <v>0.06220373592240137</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>31</v>
@@ -4284,19 +4284,19 @@
         <v>36213</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>24150</v>
+        <v>24917</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>51814</v>
+        <v>51379</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02686748900368282</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01791726470084854</v>
+        <v>0.0184866873360326</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0384417618256298</v>
+        <v>0.03811926423902544</v>
       </c>
     </row>
     <row r="23">
@@ -4313,19 +4313,19 @@
         <v>649279</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>640936</v>
+        <v>641008</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>654234</v>
+        <v>653694</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9889130817651975</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9762068480647896</v>
+        <v>0.9763159981197808</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9964605992811456</v>
+        <v>0.9956383758936181</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>621</v>
@@ -4334,19 +4334,19 @@
         <v>662360</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>648926</v>
+        <v>648293</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>673392</v>
+        <v>671765</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.958144879207795</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9387119437925886</v>
+        <v>0.9377962640775986</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9741039235467707</v>
+        <v>0.971750248261363</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1195</v>
@@ -4355,19 +4355,19 @@
         <v>1311639</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1296038</v>
+        <v>1296473</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1323702</v>
+        <v>1322935</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9731325109963171</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.96155823817437</v>
+        <v>0.9618807357609739</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9820827352991511</v>
+        <v>0.9815133126639674</v>
       </c>
     </row>
     <row r="24">
@@ -4459,19 +4459,19 @@
         <v>17175</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10499</v>
+        <v>10909</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26496</v>
+        <v>26727</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02205885461265952</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01348533865291431</v>
+        <v>0.01401130827789675</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03403041252748103</v>
+        <v>0.03432826681433924</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>45</v>
@@ -4480,19 +4480,19 @@
         <v>53055</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>40147</v>
+        <v>39707</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>70802</v>
+        <v>69523</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06421884206392933</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04859486054199787</v>
+        <v>0.04806189195694659</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08569955870858333</v>
+        <v>0.08415158307085915</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>63</v>
@@ -4501,19 +4501,19 @@
         <v>70230</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>54324</v>
+        <v>55071</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>89143</v>
+        <v>87983</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04376391176363321</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03385204196819525</v>
+        <v>0.03431726620438319</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05554973506122583</v>
+        <v>0.05482662930033798</v>
       </c>
     </row>
     <row r="26">
@@ -4530,19 +4530,19 @@
         <v>761408</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>752087</v>
+        <v>751856</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>768084</v>
+        <v>767674</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9779411453873404</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9659695874725193</v>
+        <v>0.9656717331856606</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9865146613470858</v>
+        <v>0.9859886917221031</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>710</v>
@@ -4551,19 +4551,19 @@
         <v>773112</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>755365</v>
+        <v>756644</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>786020</v>
+        <v>786460</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9357811579360706</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9143004412914166</v>
+        <v>0.9158484169291418</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9514051394580021</v>
+        <v>0.9519381080430537</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1442</v>
@@ -4572,19 +4572,19 @@
         <v>1534520</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1515607</v>
+        <v>1516767</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1550426</v>
+        <v>1549679</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9562360882363667</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.944450264938774</v>
+        <v>0.9451733706996623</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9661479580318045</v>
+        <v>0.9656827337956169</v>
       </c>
     </row>
     <row r="27">
@@ -4676,19 +4676,19 @@
         <v>66891</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>52605</v>
+        <v>50427</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>85342</v>
+        <v>83049</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01970658274563305</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01549782183132276</v>
+        <v>0.01485617203978425</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02514246988506556</v>
+        <v>0.02446672067256133</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>215</v>
@@ -4697,19 +4697,19 @@
         <v>237917</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>207684</v>
+        <v>209457</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>274709</v>
+        <v>272707</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06712196324374967</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05859270296704545</v>
+        <v>0.05909291470979196</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07750208701818941</v>
+        <v>0.07693728137728899</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>281</v>
@@ -4718,19 +4718,19 @@
         <v>304808</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>272390</v>
+        <v>268225</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>340167</v>
+        <v>340343</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04392742366477541</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03925549998180625</v>
+        <v>0.03865526240186772</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04902330229248265</v>
+        <v>0.04904863553321134</v>
       </c>
     </row>
     <row r="29">
@@ -4747,19 +4747,19 @@
         <v>3327459</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3309008</v>
+        <v>3311301</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3341745</v>
+        <v>3343923</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9802934172543669</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9748575301149345</v>
+        <v>0.9755332793274387</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9845021781686774</v>
+        <v>0.9851438279602158</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3123</v>
@@ -4768,19 +4768,19 @@
         <v>3306625</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3269833</v>
+        <v>3271835</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3336858</v>
+        <v>3335085</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9328780367562504</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9224979129818106</v>
+        <v>0.9230627186227111</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9414072970329546</v>
+        <v>0.9409070852902081</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6288</v>
@@ -4789,19 +4789,19 @@
         <v>6634084</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6598725</v>
+        <v>6598549</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6666502</v>
+        <v>6670667</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9560725763352246</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9509766977075175</v>
+        <v>0.9509513644667886</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9607445000181939</v>
+        <v>0.9613447375981322</v>
       </c>
     </row>
     <row r="30">
@@ -5137,19 +5137,19 @@
         <v>4327</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1664</v>
+        <v>1654</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9879</v>
+        <v>9824</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01357039787469156</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005219360624029503</v>
+        <v>0.005187713718198844</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03098370701687777</v>
+        <v>0.03081267217966682</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -5158,19 +5158,19 @@
         <v>13937</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9217</v>
+        <v>9774</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20096</v>
+        <v>20227</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04409535160759263</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02916161735525992</v>
+        <v>0.03092532997206103</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06358133355988148</v>
+        <v>0.06399600300196877</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -5179,19 +5179,19 @@
         <v>18264</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12470</v>
+        <v>13234</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25325</v>
+        <v>25961</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02876593494224393</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01964056245787723</v>
+        <v>0.02084437092904916</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03988748529246637</v>
+        <v>0.04089009025580839</v>
       </c>
     </row>
     <row r="5">
@@ -5208,19 +5208,19 @@
         <v>314518</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>308966</v>
+        <v>309021</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>317181</v>
+        <v>317191</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9864296021253085</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9690162929831225</v>
+        <v>0.9691873278203332</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9947806393759704</v>
+        <v>0.9948122862818011</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>510</v>
@@ -5229,19 +5229,19 @@
         <v>302124</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>295965</v>
+        <v>295834</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>306844</v>
+        <v>306287</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9559046483924073</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9364186664401182</v>
+        <v>0.9360039969980313</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9708383826447389</v>
+        <v>0.9690746700279389</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>836</v>
@@ -5250,19 +5250,19 @@
         <v>616642</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>609581</v>
+        <v>608945</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>622436</v>
+        <v>621672</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9712340650577562</v>
+        <v>0.971234065057756</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9601125147075337</v>
+        <v>0.9591099097441916</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9803594375421228</v>
+        <v>0.9791556290709509</v>
       </c>
     </row>
     <row r="6">
@@ -5354,19 +5354,19 @@
         <v>21298</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13112</v>
+        <v>12784</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32669</v>
+        <v>32445</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.04013618519202989</v>
+        <v>0.04013618519202988</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02470859942216345</v>
+        <v>0.02409102757420306</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06156528838412537</v>
+        <v>0.06114184465274649</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>85</v>
@@ -5375,19 +5375,19 @@
         <v>58995</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47813</v>
+        <v>46558</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71817</v>
+        <v>71828</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1079509957496041</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08749051174033178</v>
+        <v>0.08519431109630118</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1314134834392924</v>
+        <v>0.1314333710613358</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>103</v>
@@ -5396,19 +5396,19 @@
         <v>80293</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>64819</v>
+        <v>66274</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>96045</v>
+        <v>99003</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07454244995763482</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0601766812822252</v>
+        <v>0.06152789649042892</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08916624386066622</v>
+        <v>0.09191290317234264</v>
       </c>
     </row>
     <row r="8">
@@ -5425,19 +5425,19 @@
         <v>509349</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>497978</v>
+        <v>498202</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>517535</v>
+        <v>517863</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.95986381480797</v>
+        <v>0.9598638148079699</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9384347116158746</v>
+        <v>0.9388581553472534</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9752914005778365</v>
+        <v>0.9759089724257966</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>632</v>
@@ -5446,19 +5446,19 @@
         <v>487499</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>474677</v>
+        <v>474666</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>498681</v>
+        <v>499936</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8920490042503959</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8685865165607077</v>
+        <v>0.868566628938664</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9125094882596683</v>
+        <v>0.9148056889036986</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>996</v>
@@ -5467,19 +5467,19 @@
         <v>996848</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>981096</v>
+        <v>978138</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1012322</v>
+        <v>1010867</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9254575500423653</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9108337561393338</v>
+        <v>0.9080870968276576</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9398233187177748</v>
+        <v>0.9384721035095712</v>
       </c>
     </row>
     <row r="9">
@@ -5571,19 +5571,19 @@
         <v>17926</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11481</v>
+        <v>11272</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26574</v>
+        <v>27706</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05672959381825256</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0363316645571248</v>
+        <v>0.03567108944904157</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08409726354623309</v>
+        <v>0.0876807038387057</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -5592,19 +5592,19 @@
         <v>23207</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16452</v>
+        <v>16947</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30803</v>
+        <v>31298</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06511762453027591</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04616382593480917</v>
+        <v>0.04755345611289336</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08643265011628026</v>
+        <v>0.08782144018831348</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -5613,19 +5613,19 @@
         <v>41133</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32241</v>
+        <v>32632</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52779</v>
+        <v>53474</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06117553344430462</v>
+        <v>0.0611755334443046</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04795132794446743</v>
+        <v>0.04853245143042025</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07849667190519057</v>
+        <v>0.07953002036611791</v>
       </c>
     </row>
     <row r="11">
@@ -5642,19 +5642,19 @@
         <v>298067</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>289419</v>
+        <v>288287</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>304512</v>
+        <v>304721</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9432704061817474</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9159027364537669</v>
+        <v>0.9123192961612947</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9636683354428753</v>
+        <v>0.9643289105509585</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>495</v>
@@ -5663,19 +5663,19 @@
         <v>333174</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>325578</v>
+        <v>325083</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>339929</v>
+        <v>339434</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9348823754697242</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9135673498837196</v>
+        <v>0.9121785598116858</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9538361740651908</v>
+        <v>0.9524465438871063</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>835</v>
@@ -5684,19 +5684,19 @@
         <v>631242</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>619596</v>
+        <v>618901</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>640134</v>
+        <v>639743</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9388244665556956</v>
+        <v>0.9388244665556954</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9215033280948095</v>
+        <v>0.9204699796338823</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9520486720555326</v>
+        <v>0.9514675485695799</v>
       </c>
     </row>
     <row r="12">
@@ -5788,19 +5788,19 @@
         <v>17442</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9996</v>
+        <v>9584</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28836</v>
+        <v>30502</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04674276919051694</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02678913077440607</v>
+        <v>0.02568368880082654</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07727881634929065</v>
+        <v>0.08174290887686869</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -5809,19 +5809,19 @@
         <v>36178</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27568</v>
+        <v>27501</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>46957</v>
+        <v>47590</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.08573793034074273</v>
+        <v>0.08573793034074274</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06533376580855654</v>
+        <v>0.06517378630894484</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1112829978562177</v>
+        <v>0.1127819688867101</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>76</v>
@@ -5830,19 +5830,19 @@
         <v>53620</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>42053</v>
+        <v>39733</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>69300</v>
+        <v>68801</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06743741866951196</v>
+        <v>0.06743741866951194</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05288942141563472</v>
+        <v>0.04997147205159034</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08715761631779191</v>
+        <v>0.08653102931544984</v>
       </c>
     </row>
     <row r="14">
@@ -5859,19 +5859,19 @@
         <v>355703</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>344309</v>
+        <v>342643</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>363149</v>
+        <v>363561</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.953257230809483</v>
+        <v>0.9532572308094832</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9227211836507094</v>
+        <v>0.9182570911231313</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9732108692255939</v>
+        <v>0.9743163111991734</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>539</v>
@@ -5880,19 +5880,19 @@
         <v>385783</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>375004</v>
+        <v>374371</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>394393</v>
+        <v>394460</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9142620696592573</v>
+        <v>0.9142620696592574</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8887170021437821</v>
+        <v>0.8872180311132895</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9346662341914429</v>
+        <v>0.934826213691055</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>815</v>
@@ -5901,19 +5901,19 @@
         <v>741487</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>725807</v>
+        <v>726306</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>753054</v>
+        <v>755374</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9325625813304881</v>
+        <v>0.932562581330488</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9128423836822083</v>
+        <v>0.9134689706845504</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9471105785843653</v>
+        <v>0.9500285279484096</v>
       </c>
     </row>
     <row r="15">
@@ -6005,19 +6005,19 @@
         <v>2390</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>811</v>
+        <v>615</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6906</v>
+        <v>5656</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01161904394747405</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003945629477605332</v>
+        <v>0.002988918940280455</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0335770477741167</v>
+        <v>0.02750189703892894</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -6026,19 +6026,19 @@
         <v>9851</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6546</v>
+        <v>6257</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14701</v>
+        <v>14371</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.0430322416051282</v>
+        <v>0.04303224160512821</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02859685426745854</v>
+        <v>0.02733327821339938</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06421744623692004</v>
+        <v>0.06277710417931898</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -6047,19 +6047,19 @@
         <v>12240</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8004</v>
+        <v>8048</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17488</v>
+        <v>17477</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02816604402709105</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.018416818904244</v>
+        <v>0.01851806061637874</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04024146409457743</v>
+        <v>0.04021501154196084</v>
       </c>
     </row>
     <row r="17">
@@ -6076,19 +6076,19 @@
         <v>203275</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>198759</v>
+        <v>200009</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>204854</v>
+        <v>205050</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9883809560525257</v>
+        <v>0.988380956052526</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9664229522258833</v>
+        <v>0.9724981029610704</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9960543705223922</v>
+        <v>0.9970110810597194</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>472</v>
@@ -6097,19 +6097,19 @@
         <v>219067</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>214217</v>
+        <v>214547</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>222372</v>
+        <v>222661</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9569677583948718</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9357825537630799</v>
+        <v>0.937222895820681</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9714031457325415</v>
+        <v>0.9726667217866006</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>747</v>
@@ -6118,19 +6118,19 @@
         <v>422342</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>417094</v>
+        <v>417105</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>426578</v>
+        <v>426534</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.971833955972909</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9597585359054225</v>
+        <v>0.9597849884580392</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.981583181095756</v>
+        <v>0.9814819393836213</v>
       </c>
     </row>
     <row r="18">
@@ -6222,19 +6222,19 @@
         <v>14465</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9077</v>
+        <v>9237</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22014</v>
+        <v>22265</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05343233585210142</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03353150956799541</v>
+        <v>0.03412099039833798</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08132067021255839</v>
+        <v>0.08224699044053933</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>35</v>
@@ -6243,19 +6243,19 @@
         <v>18560</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13036</v>
+        <v>13066</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>25589</v>
+        <v>25654</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.07036929291086452</v>
+        <v>0.07036929291086449</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04942460978813646</v>
+        <v>0.04953994719813337</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09702041586116633</v>
+        <v>0.09726643735022891</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>57</v>
@@ -6264,19 +6264,19 @@
         <v>33024</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>25220</v>
+        <v>24957</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>42468</v>
+        <v>42043</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06179058563039137</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04718796682652609</v>
+        <v>0.04669574264815443</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07945963204485698</v>
+        <v>0.07866508814562266</v>
       </c>
     </row>
     <row r="20">
@@ -6293,19 +6293,19 @@
         <v>256242</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>248693</v>
+        <v>248442</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>261630</v>
+        <v>261470</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9465676641478986</v>
+        <v>0.9465676641478985</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9186793297874415</v>
+        <v>0.9177530095594607</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9664684904320044</v>
+        <v>0.965879009601662</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>425</v>
@@ -6314,19 +6314,19 @@
         <v>245190</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>238161</v>
+        <v>238096</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>250714</v>
+        <v>250684</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9296307070891355</v>
+        <v>0.9296307070891353</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9029795841388335</v>
+        <v>0.902733562649771</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9505753902118634</v>
+        <v>0.9504600528018665</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>774</v>
@@ -6335,19 +6335,19 @@
         <v>501433</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>491989</v>
+        <v>492414</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>509237</v>
+        <v>509500</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9382094143696087</v>
+        <v>0.9382094143696086</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9205403679551429</v>
+        <v>0.9213349118543774</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9528120331734738</v>
+        <v>0.9533042573518454</v>
       </c>
     </row>
     <row r="21">
@@ -6439,19 +6439,19 @@
         <v>35675</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24118</v>
+        <v>24401</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>51347</v>
+        <v>51630</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04956995615390827</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03351200176952447</v>
+        <v>0.03390509670964558</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07134597169320336</v>
+        <v>0.07173896726876572</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>102</v>
@@ -6460,19 +6460,19 @@
         <v>80759</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>66418</v>
+        <v>66402</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>98222</v>
+        <v>97188</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1046027638890824</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08602718485518918</v>
+        <v>0.08600693473540291</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1272210050034729</v>
+        <v>0.1258817559869342</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>132</v>
@@ -6481,19 +6481,19 @@
         <v>116434</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>95521</v>
+        <v>95225</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>137836</v>
+        <v>138368</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.07805236133021276</v>
+        <v>0.07805236133021277</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06403287257938908</v>
+        <v>0.06383458766394157</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0923989001025296</v>
+        <v>0.09275591564913367</v>
       </c>
     </row>
     <row r="23">
@@ -6510,19 +6510,19 @@
         <v>684012</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>668340</v>
+        <v>668057</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>695569</v>
+        <v>695286</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9504300438460919</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9286540283067967</v>
+        <v>0.9282610327312343</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9664879982304755</v>
+        <v>0.9660949032903543</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>858</v>
@@ -6531,19 +6531,19 @@
         <v>691298</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>673835</v>
+        <v>674869</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>705639</v>
+        <v>705655</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8953972361109174</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8727789949965271</v>
+        <v>0.8741182440130657</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9139728151448107</v>
+        <v>0.9139930652645969</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1427</v>
@@ -6552,19 +6552,19 @@
         <v>1375310</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1353908</v>
+        <v>1353376</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1396223</v>
+        <v>1396519</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9219476386697871</v>
+        <v>0.9219476386697874</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9076010998974704</v>
+        <v>0.9072440843508662</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9359671274206107</v>
+        <v>0.9361654123360583</v>
       </c>
     </row>
     <row r="24">
@@ -6656,19 +6656,19 @@
         <v>21696</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14379</v>
+        <v>14283</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33045</v>
+        <v>33609</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02718530170203353</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01801731898892179</v>
+        <v>0.0178971180280526</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04140637640557832</v>
+        <v>0.04211218924032702</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>78</v>
@@ -6677,19 +6677,19 @@
         <v>57844</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>46680</v>
+        <v>45703</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>71025</v>
+        <v>71887</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06957990435388743</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05615125348170456</v>
+        <v>0.0549754334867813</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08543578822303648</v>
+        <v>0.0864726074178211</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>100</v>
@@ -6698,19 +6698,19 @@
         <v>79540</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>65568</v>
+        <v>64180</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>97247</v>
+        <v>96546</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04881528458626155</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04024063020422167</v>
+        <v>0.03938836273115187</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05968232532257568</v>
+        <v>0.05925212014113018</v>
       </c>
     </row>
     <row r="26">
@@ -6727,19 +6727,19 @@
         <v>776376</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>765027</v>
+        <v>764463</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>783693</v>
+        <v>783789</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9728146982979663</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9585936235944218</v>
+        <v>0.9578878107596723</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9819826810110781</v>
+        <v>0.9821028819719474</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>984</v>
@@ -6748,19 +6748,19 @@
         <v>773487</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>760306</v>
+        <v>759444</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>784651</v>
+        <v>785628</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9304200956461126</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9145642117769635</v>
+        <v>0.9135273925821789</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9438487465182955</v>
+        <v>0.9450245665132188</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1724</v>
@@ -6769,19 +6769,19 @@
         <v>1549863</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1532156</v>
+        <v>1532857</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1563835</v>
+        <v>1565223</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9511847154137385</v>
+        <v>0.9511847154137384</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9403176746774246</v>
+        <v>0.9407478798588699</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9597593697957782</v>
+        <v>0.960611637268848</v>
       </c>
     </row>
     <row r="27">
@@ -6873,19 +6873,19 @@
         <v>135218</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>113408</v>
+        <v>111675</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>160831</v>
+        <v>162312</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03827539222787757</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0321017034585543</v>
+        <v>0.03161114073685194</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04552545949502023</v>
+        <v>0.04594478447260101</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>452</v>
@@ -6894,19 +6894,19 @@
         <v>299330</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>271796</v>
+        <v>273976</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>328182</v>
+        <v>331084</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0801000539234278</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07273186518229634</v>
+        <v>0.07331544755997914</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08782080933619643</v>
+        <v>0.08859724223886213</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>589</v>
@@ -6915,19 +6915,19 @@
         <v>434548</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>398896</v>
+        <v>393024</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>475673</v>
+        <v>470504</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.05977510998432212</v>
+        <v>0.05977510998432211</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05487092139409511</v>
+        <v>0.05406320808633589</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06543208960991158</v>
+        <v>0.06472113825583961</v>
       </c>
     </row>
     <row r="29">
@@ -6944,19 +6944,19 @@
         <v>3397544</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3371931</v>
+        <v>3370450</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3419354</v>
+        <v>3421087</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9617246077721227</v>
+        <v>0.9617246077721225</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9544745405049796</v>
+        <v>0.954055215527399</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9678982965414458</v>
+        <v>0.9683888592631481</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4915</v>
@@ -6965,19 +6965,19 @@
         <v>3437624</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3408772</v>
+        <v>3405870</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3465158</v>
+        <v>3462978</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9198999460765722</v>
+        <v>0.9198999460765721</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9121791906638034</v>
+        <v>0.9114027577611378</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9272681348177035</v>
+        <v>0.9266845524400209</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8154</v>
@@ -6986,19 +6986,19 @@
         <v>6835168</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6794043</v>
+        <v>6799212</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6870820</v>
+        <v>6876692</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9402248900156779</v>
+        <v>0.9402248900156777</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9345679103900885</v>
+        <v>0.9352788617441604</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9451290786059053</v>
+        <v>0.9459367919136642</v>
       </c>
     </row>
     <row r="30">
